--- a/cw/reportfiles/reportready-p-5hid1000epo.xlsx
+++ b/cw/reportfiles/reportready-p-5hid1000epo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ardadogan/Documents/code/AI/semester2/cw/reportfiles/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF203EE9-4AA1-9C41-B213-18B98581177C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1210DDB7-FEF1-3C45-855A-08EB16FF8A74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -616,7 +616,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Effect of learning parameter on MSE</a:t>
+              <a:t>Effect of learning parameter on MSE (5 hidden nodes, 1000 epochs)</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -2012,7 +2012,7 @@
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
